--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="270">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>Regression_TEST_26_Mar_25 14_48_34</t>
+  </si>
+  <si>
+    <t>March 27,2025 09:46:42</t>
+  </si>
+  <si>
+    <t>Regression_TEST_27_Mar_25 09_46_25</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1270,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>

--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="273">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -831,6 +831,15 @@
   </si>
   <si>
     <t>Regression_TEST_27_Mar_25 09_46_25</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:03:13</t>
+  </si>
+  <si>
+    <t>Regression_TEST_9_Apr_25 15_02_43</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:03:21</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1276,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>
@@ -1369,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>29</v>
@@ -1381,7 +1390,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>248</v>
@@ -1670,6 +1679,12 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="279">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -840,6 +840,24 @@
   </si>
   <si>
     <t>April 09,2025 15:03:21</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:16:45</t>
+  </si>
+  <si>
+    <t>Regression_TEST_9_Apr_25 15_16_33</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:16:52</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:17:50</t>
+  </si>
+  <si>
+    <t>Regression_TEST_9_Apr_25 15_17_42</t>
+  </si>
+  <si>
+    <t>April 09,2025 15:17:58</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1285,13 +1303,13 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1378,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>29</v>
@@ -1390,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>248</v>
@@ -1672,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="282">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t>April 09,2025 15:17:58</t>
+  </si>
+  <si>
+    <t>April 09,2025 16:39:24</t>
+  </si>
+  <si>
+    <t>Regression_TEST_9_Apr_25 16_39_02</t>
+  </si>
+  <si>
+    <t>April 09,2025 16:39:32</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1303,13 +1312,13 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>29</v>
@@ -1408,7 +1417,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>248</v>
@@ -1690,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="269">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -821,52 +821,13 @@
     <t>Regression_TEST_13_Mar_25 16_43_43</t>
   </si>
   <si>
-    <t>March 26,2025 14:48:58</t>
-  </si>
-  <si>
-    <t>Regression_TEST_26_Mar_25 14_48_34</t>
-  </si>
-  <si>
-    <t>March 27,2025 09:46:42</t>
-  </si>
-  <si>
-    <t>Regression_TEST_27_Mar_25 09_46_25</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:03:13</t>
-  </si>
-  <si>
-    <t>Regression_TEST_9_Apr_25 15_02_43</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:03:21</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:16:45</t>
-  </si>
-  <si>
-    <t>Regression_TEST_9_Apr_25 15_16_33</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:16:52</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:17:50</t>
-  </si>
-  <si>
-    <t>Regression_TEST_9_Apr_25 15_17_42</t>
-  </si>
-  <si>
-    <t>April 09,2025 15:17:58</t>
-  </si>
-  <si>
-    <t>April 09,2025 16:39:24</t>
-  </si>
-  <si>
-    <t>Regression_TEST_9_Apr_25 16_39_02</t>
-  </si>
-  <si>
-    <t>April 09,2025 16:39:32</t>
+    <t>April 10,2025 09:17:16</t>
+  </si>
+  <si>
+    <t>Regression_TEST_10_Apr_25 09_17_00</t>
+  </si>
+  <si>
+    <t>April 10,2025 09:17:23</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1312,7 +1273,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>
@@ -1405,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>29</v>
@@ -1417,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>248</v>

--- a/ResultsSummary.xlsx
+++ b/ResultsSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="266">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -819,15 +819,6 @@
   </si>
   <si>
     <t>Regression_TEST_13_Mar_25 16_43_43</t>
-  </si>
-  <si>
-    <t>April 10,2025 09:17:16</t>
-  </si>
-  <si>
-    <t>Regression_TEST_10_Apr_25 09_17_00</t>
-  </si>
-  <si>
-    <t>April 10,2025 09:17:23</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>29</v>
@@ -1273,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>32</v>
@@ -1366,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>29</v>
@@ -1378,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>248</v>
@@ -1667,12 +1658,6 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>248</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
